--- a/PowerManagementBoard_V3/Bill of Materials-PowerManagementBoard_V3.xlsx
+++ b/PowerManagementBoard_V3/Bill of Materials-PowerManagementBoard_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrithviShankara\Documents\Altium\Designs\V3.2\PowerManagementBoard_V3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrithviShankara\Documents\Altium\Designs\Andromeda-V3.2\PowerManagementBoard_V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A35BED-AD44-4470-A5B3-6A3B09096044}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CBDF814-78EE-45E6-92CD-ED783FD80617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB06378E-8B76-40F4-889A-8F79FB86539D}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{6BFF09DA-4FEB-4CB6-9072-C89EC985A32F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PowerManageme" sheetId="1" r:id="rId1"/>
@@ -756,13 +756,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4339487-2EAB-4BD8-B2AE-7F9EB07F465C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC85A7A-B9F1-4488-9AAB-9F18969600AA}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/PowerManagementBoard_V3/Bill of Materials-PowerManagementBoard_V3.xlsx
+++ b/PowerManagementBoard_V3/Bill of Materials-PowerManagementBoard_V3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PrithviShankara\Documents\Altium\Designs\Andromeda-V3.2\PowerManagementBoard_V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CBDF814-78EE-45E6-92CD-ED783FD80617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8031A070-2EF4-44A8-A9BD-3AED34BFE55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{6BFF09DA-4FEB-4CB6-9072-C89EC985A32F}"/>
+    <workbookView xWindow="-30860" yWindow="-140" windowWidth="17280" windowHeight="8960" xr2:uid="{F5728346-234D-4B85-8ADC-3548C616637F}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PowerManageme" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
   <si>
     <t>Comment</t>
   </si>
@@ -74,7 +74,7 @@
     <t>CAP CER 4.7UF 25V X5R 0603</t>
   </si>
   <si>
-    <t>C2, C15</t>
+    <t>C2, C19</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB223</t>
@@ -131,7 +131,7 @@
     <t>CAP CER 10UF 10V X5R 0603</t>
   </si>
   <si>
-    <t>C8, C9, C17</t>
+    <t>C8, C13, C14, C22</t>
   </si>
   <si>
     <t>CGA3E2X7R1E104K080AA</t>
@@ -140,7 +140,25 @@
     <t>CAP CER 0.1UF 25V X7R 0603</t>
   </si>
   <si>
-    <t>C10, C11, C16</t>
+    <t>C9, C11, C15, C16</t>
+  </si>
+  <si>
+    <t>CL10A105KP8NNNC</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 10V X5R 0603</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>CGA3E2X7R1H103K080AA</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 50V X7R 0603</t>
+  </si>
+  <si>
+    <t>C12</t>
   </si>
   <si>
     <t>C1608X5R1A226M080AC</t>
@@ -149,7 +167,16 @@
     <t>CAP CER 22UF 10V X5R 0603</t>
   </si>
   <si>
-    <t>C12, C13</t>
+    <t>C17, C18</t>
+  </si>
+  <si>
+    <t>GRM1885C1H103JA01D</t>
+  </si>
+  <si>
+    <t>CAP CER 10000PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>C20</t>
   </si>
   <si>
     <t>C0603C102K3GACTU</t>
@@ -158,7 +185,7 @@
     <t>CAP CER 1000PF 25V C0G/NP0 0603</t>
   </si>
   <si>
-    <t>C14</t>
+    <t>C21</t>
   </si>
   <si>
     <t>1N4148W-7-F</t>
@@ -194,7 +221,16 @@
     <t>CONN HEADER VERT 4POS MALE 2.54MM</t>
   </si>
   <si>
-    <t>J1, J2</t>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>61300611121</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS MALE 2.54MM</t>
+  </si>
+  <si>
+    <t>J2</t>
   </si>
   <si>
     <t>0430450400</t>
@@ -224,10 +260,10 @@
     <t>L2</t>
   </si>
   <si>
-    <t>36-4853-ND</t>
-  </si>
-  <si>
-    <t>#4 Screw Standoff, 0.116in Diameter</t>
+    <t>9774110360R</t>
+  </si>
+  <si>
+    <t>ROUND STANDOFF M3X0.5 STEEL 11MM</t>
   </si>
   <si>
     <t>MH1, MH2</t>
@@ -278,7 +314,7 @@
     <t>RES SMD 1K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R5, R15</t>
+    <t>R5, R16</t>
   </si>
   <si>
     <t>ERA-3AEB2491V</t>
@@ -290,13 +326,22 @@
     <t>R6, R7</t>
   </si>
   <si>
+    <t>CRGCQ0603F220R</t>
+  </si>
+  <si>
+    <t>CRGCQ 0603 220R 1%</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
     <t>MCT06030C1301FP500</t>
   </si>
   <si>
     <t>RES SMD 1.3K OHM 1% 1/8W 0603</t>
   </si>
   <si>
-    <t>R8</t>
+    <t>R9</t>
   </si>
   <si>
     <t>ESR03EZPJ751</t>
@@ -305,7 +350,25 @@
     <t>RES SMD 750 OHM 5% 1/4W 0603</t>
   </si>
   <si>
-    <t>R9</t>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>RC1608F331CS</t>
+  </si>
+  <si>
+    <t>RES SMD 330 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ103V</t>
+  </si>
+  <si>
+    <t>RES SMD 10K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>R12, R14</t>
   </si>
   <si>
     <t>RC0603FR-0754K9L</t>
@@ -314,25 +377,7 @@
     <t>RES SMD 54.9K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ103V</t>
-  </si>
-  <si>
-    <t>RES SMD 10K OHM 5% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R11, R13</t>
-  </si>
-  <si>
-    <t>RC1608F331CS</t>
-  </si>
-  <si>
-    <t>RES SMD 330 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>R12</t>
+    <t>R13</t>
   </si>
   <si>
     <t>ERJ-3EKF2211V</t>
@@ -341,7 +386,7 @@
     <t>RES SMD 2.21K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>R14</t>
+    <t>R15</t>
   </si>
   <si>
     <t>SC4525ESETRT</t>
@@ -356,13 +401,25 @@
     <t>SOIC127P600X175_HS-9N</t>
   </si>
   <si>
+    <t>TPS22810DBVR</t>
+  </si>
+  <si>
+    <t>IC PWR SWITCH N-CHAN 1:1 SOT23-6</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>SOT95P280X145-6N</t>
+  </si>
+  <si>
     <t>TPS562208DDCT</t>
   </si>
   <si>
     <t>IC REG BUCK ADJ 2A TSOT23-6</t>
   </si>
   <si>
-    <t>U2</t>
+    <t>U3</t>
   </si>
   <si>
     <t>LP3878MRX-ADJ/NOPB</t>
@@ -371,7 +428,7 @@
     <t>IC REG LIN POS ADJ 800MA 8SO</t>
   </si>
   <si>
-    <t>U3</t>
+    <t>U4</t>
   </si>
   <si>
     <t>SOIC127P600X170_HS-9N</t>
@@ -756,13 +813,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC85A7A-B9F1-4488-9AAB-9F18969600AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6928311C-41A9-4F00-B014-1BD82345C658}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -946,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -966,7 +1025,7 @@
         <v>32</v>
       </c>
       <c r="F10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -986,7 +1045,7 @@
         <v>35</v>
       </c>
       <c r="F11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1020,13 +1079,13 @@
         <v>43</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1040,7 +1099,7 @@
         <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>44</v>
@@ -1060,13 +1119,13 @@
         <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1086,7 +1145,7 @@
         <v>50</v>
       </c>
       <c r="F16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1106,10 +1165,10 @@
         <v>53</v>
       </c>
       <c r="F17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>56</v>
       </c>
@@ -1126,7 +1185,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1160,50 +1219,50 @@
         <v>64</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>62</v>
       </c>
       <c r="F20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="4">
         <v>1</v>
@@ -1211,19 +1270,19 @@
     </row>
     <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="4">
         <v>1</v>
@@ -1231,22 +1290,22 @@
     </row>
     <row r="24" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1266,7 +1325,7 @@
         <v>78</v>
       </c>
       <c r="F25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1286,7 +1345,7 @@
         <v>81</v>
       </c>
       <c r="F26" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1346,7 +1405,7 @@
         <v>90</v>
       </c>
       <c r="F29" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1369,7 +1428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>96</v>
       </c>
@@ -1409,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>102</v>
       </c>
@@ -1420,7 +1479,7 @@
         <v>104</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>105</v>
+        <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>102</v>
@@ -1431,19 +1490,19 @@
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="4">
         <v>1</v>
@@ -1451,27 +1510,147 @@
     </row>
     <row r="35" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C35" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="C36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F41" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.30555555555555558" right="0.30555555555555558" top="0.30555555555555558" bottom="0.30555555555555558" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="52" orientation="landscape" blackAndWhite="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="landscape" blackAndWhite="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>